--- a/ReferLinks/referlinks.xlsx
+++ b/ReferLinks/referlinks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>referLinks</t>
   </si>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>http://localhost:4034/account/register/61C481858</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/0776962BB</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/FCC8AC700</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/18ADBF82D</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/760F98291</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/B24F01CC4</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/9123B96CD</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/EEA8A8F30</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/account/register/5AA36D171</t>
   </si>
 </sst>
 </file>
@@ -495,7 +519,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
